--- a/consistency/analysis/results1k8_analysis.xlsx
+++ b/consistency/analysis/results1k8_analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5960" yWindow="240" windowWidth="19640" windowHeight="15780" tabRatio="500"/>
+    <workbookView xWindow="760" yWindow="0" windowWidth="25600" windowHeight="16180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="results1k8.csv" sheetId="1" r:id="rId1"/>
@@ -93,16 +93,346 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0813217410323709"/>
+          <c:y val="0.0601851851851852"/>
+          <c:w val="0.754195180147936"/>
+          <c:h val="0.806948454359872"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>results1k8.csv!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random-Agent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>results1k8.csv!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>410.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>420.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>430.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>440.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>450.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>460.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>470.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>480.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>490.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>510.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>520.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>530.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>540.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>550.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>560.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>570.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>580.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>590.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>610.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>620.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>630.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>640.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>650.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>660.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>670.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>680.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>690.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>710.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>720.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>730.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>740.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>750.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>760.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>770.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>780.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>790.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>810.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>820.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>830.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>840.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>850.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>860.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>870.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>880.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>890.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>910.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>920.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>930.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>940.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>950.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>960.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>970.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>980.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>990.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>results1k8.csv!$B$2:$B$101</c:f>
@@ -417,9 +747,329 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>results1k8.csv!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fixed-Agent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>results1k8.csv!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>410.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>420.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>430.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>440.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>450.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>460.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>470.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>480.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>490.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>510.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>520.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>530.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>540.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>550.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>560.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>570.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>580.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>590.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>610.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>620.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>630.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>640.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>650.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>660.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>670.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>680.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>690.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>710.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>720.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>730.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>740.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>750.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>760.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>770.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>780.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>790.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>810.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>820.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>830.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>840.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>850.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>860.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>870.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>880.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>890.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>910.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>920.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>930.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>940.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>950.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>960.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>970.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>980.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>990.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>results1k8.csv!$C$2:$C$101</c:f>
@@ -734,9 +1384,329 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>results1k8.csv!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Crowd-Agent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>results1k8.csv!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>410.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>420.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>430.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>440.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>450.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>460.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>470.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>480.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>490.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>510.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>520.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>530.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>540.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>550.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>560.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>570.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>580.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>590.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>610.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>620.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>630.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>640.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>650.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>660.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>670.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>680.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>690.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>710.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>720.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>730.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>740.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>750.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>760.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>770.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>780.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>790.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>810.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>820.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>830.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>840.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>850.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>860.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>870.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>880.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>890.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>910.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>920.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>930.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>940.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>950.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>960.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>970.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>980.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>990.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>results1k8.csv!$D$2:$D$101</c:f>
@@ -1058,20 +2028,21 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2114961064"/>
-        <c:axId val="2120582120"/>
+        <c:axId val="-2145348072"/>
+        <c:axId val="-2145345096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2114961064"/>
+        <c:axId val="-2145348072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120582120"/>
+        <c:crossAx val="-2145345096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1079,7 +2050,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2120582120"/>
+        <c:axId val="-2145345096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1090,14 +2061,23 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114961064"/>
+        <c:crossAx val="-2145348072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.8322340730136"/>
+          <c:y val="0.360535141440653"/>
+          <c:w val="0.167765926986399"/>
+          <c:h val="0.278929352580927"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1116,16 +2096,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1471,8 +2451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
